--- a/biology/Botanique/Botrydiopsidaceae/Botrydiopsidaceae.xlsx
+++ b/biology/Botanique/Botrydiopsidaceae/Botrydiopsidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Botrydiopsidaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Xanthophyceae et de l’ordre des Mischococcales.
 Le genre type, Botrydiopsis, est une organisme commun des sols humides et des tourbières à sphaignes, et plus rarement dans des environnements aquatiques.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Botrydiopsis, composé du préfixe botrydi-, par allusion au genre Botrydium[note 1], et du suffixe -opsis, « semblable à », en référence à la ressemblance de ces deux genres.
 </t>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (28 mars 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (28 mars 2022) :
 Apiochloris Düringer
 Botrydiopsis Borzì, 1899  - genre type
 Chlorapion Bourrelly
@@ -606,7 +626,7 @@
 Osterhoutia N.L.Gardner ex Wille
 Perone Pascher
 Polychloris Borzì
-Selon World Register of Marine Species                               (28 mars 2022)[2] :
+Selon World Register of Marine Species                               (28 mars 2022) :
 Botrydiopsis Borzì, 1899
 Excentrochloris Pascher, 1938
 Perone Pascher, 1932</t>
